--- a/data/income_statement/2digits/total/14_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/14_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>14-Manufacture of wearing apparel</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>14-Manufacture of wearing apparel</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>27729138.2781</v>
@@ -956,37 +862,42 @@
         <v>31708575.74141</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>39308583.21475</v>
+        <v>39385638.33355001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>42032912.77249999</v>
+        <v>42212827.19229</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>46532692.51096001</v>
+        <v>46882991.46525</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>55257505.16535001</v>
+        <v>55969585.66614</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>61769821.42652</v>
+        <v>63528970.77858999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>69187627.6322</v>
+        <v>69443233.96621999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>85350947.17773999</v>
+        <v>85350947.17774001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>114172814.01639</v>
+        <v>114413795.43247</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>133897148.55849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>135772765.82324</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>152154142.073</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>16144892.98288</v>
@@ -995,37 +906,42 @@
         <v>18887596.61567</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>23967973.60714</v>
+        <v>24044395.35209</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>26174496.52015</v>
+        <v>26352995.39978</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>29108540.84543</v>
+        <v>29309403.0783</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>34281763.02111001</v>
+        <v>34671485.3095</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>39313349.30920999</v>
+        <v>40123619.13892</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>44441225.63398001</v>
+        <v>44556771.84234</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>54966246.45794</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>71130292.57826999</v>
+        <v>71333782.12476</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>85726578.94784001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>87271560.82824001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>95550097.04899999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11232731.40943</v>
@@ -1037,34 +953,39 @@
         <v>14789265.25085</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>15355847.68585</v>
+        <v>15356997.22957</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>16849627.08476</v>
+        <v>16998085.23893</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>20349784.17289</v>
+        <v>20665325.57705</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>21689433.2782</v>
+        <v>22601467.68039</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>23722099.4558</v>
+        <v>23860297.44736001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>29082854.42296</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>41235393.49399</v>
+        <v>41270670.81236</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>45865887.22902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>46176051.98666</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>53922089.836</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>351513.88579</v>
@@ -1073,76 +994,86 @@
         <v>408244.22476</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>551344.3567599999</v>
+        <v>551977.7306099999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>502568.5665</v>
+        <v>502834.56294</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>574524.58077</v>
+        <v>575503.14802</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>625957.97135</v>
+        <v>632774.77959</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>767038.8391100002</v>
+        <v>803883.95928</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1024302.54242</v>
+        <v>1026164.67652</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1301846.29684</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1807127.94413</v>
+        <v>1809342.49535</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2304682.38163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2325153.00834</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2681955.188</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>624333.2553199999</v>
+        <v>624333.25532</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>683272.28571</v>
+        <v>683272.2857100001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>863483.7489599999</v>
+        <v>864703.9005699999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>895191.04386</v>
+        <v>901211.19538</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>948171.1398699998</v>
+        <v>960827.3248099999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1324084.24451</v>
+        <v>1352144.19972</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1488483.47921</v>
+        <v>1533205.39223</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2140250.00304</v>
+        <v>2142147.02247</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2723288.90112</v>
+        <v>2723288.901120001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4450625.0702</v>
+        <v>4451672.46718</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4390627.38495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4434210.33323</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5509652.535</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>340911.04774</v>
@@ -1151,37 +1082,42 @@
         <v>366947.93595</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>499558.84084</v>
+        <v>500778.9924499999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>502427.3326200001</v>
+        <v>508447.48414</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>543970.5879800001</v>
+        <v>555394.40674</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>734521.68533</v>
+        <v>752719.31527</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>841273.8562199998</v>
+        <v>872905.4833700001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1442969.30627</v>
+        <v>1443701.3238</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>1944118.98608</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3020533.838929999</v>
+        <v>3021415.065400001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2930631.54252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2968290.11916</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3695539.423</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>164872.02394</v>
@@ -1196,31 +1132,36 @@
         <v>261624.06838</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>282404.43722</v>
+        <v>282554.5593</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>416694.84587</v>
+        <v>426293.36165</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>433424.23738</v>
+        <v>440159.47051</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>476008.18739</v>
+        <v>476466.91486</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>491615.2941899999</v>
+        <v>491615.29419</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>674172.7670100001</v>
+        <v>674296.4920900001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>740449.7268899999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>744063.28301</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1128346.821</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>118550.18364</v>
@@ -1235,70 +1176,80 @@
         <v>131139.64286</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>121796.11467</v>
+        <v>122878.35877</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>172867.71331</v>
+        <v>173131.5228</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>213785.38561</v>
+        <v>220140.43835</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>221272.50938</v>
+        <v>221978.78381</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>287554.6208499999</v>
+        <v>287554.62085</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>755918.46426</v>
+        <v>755960.9096899999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>719546.1155399999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>721856.9310600001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>685766.291</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>27104805.02278</v>
+        <v>27104805.02277999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>31025303.4557</v>
+        <v>31025303.45570001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>38445099.46579</v>
+        <v>38520934.43298</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>41137721.72863999</v>
+        <v>41311615.99691001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>45584521.37108999</v>
+        <v>45922164.14044</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>53933420.92084</v>
+        <v>54617441.46641999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>60281337.94730999</v>
+        <v>61995765.38636</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>67047377.62915999</v>
+        <v>67301086.94374999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>82627658.27662002</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>109722188.94619</v>
+        <v>109962122.96529</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>129506521.17354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>131338555.49001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>146644489.538</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>23016030.3481</v>
@@ -1307,37 +1258,42 @@
         <v>26764707.50399</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>32376098.28759</v>
+        <v>32424039.34912</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>35367754.70694999</v>
+        <v>35490447.31721</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>38545060.62167</v>
+        <v>38800783.15819</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>45953024.52003001</v>
+        <v>46478137.79836</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>51419433.74006</v>
+        <v>52746957.86815001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>57412443.60158999</v>
+        <v>57628710.14256</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>70308213.62181</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>91950184.96636</v>
+        <v>92159335.1103</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>111143188.03604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>112728645.21009</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>123514166.132</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>18296293.3596</v>
@@ -1346,76 +1302,86 @@
         <v>21167361.10072</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>25545425.71293001</v>
+        <v>25564662.4474</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>28345977.35456001</v>
+        <v>28427946.20472999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31201930.08669</v>
+        <v>31342200.08050999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>37084989.54074001</v>
+        <v>37469547.84687001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>41026588.87185</v>
+        <v>42102619.98635</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>45701138.75895999</v>
+        <v>45899203.90582</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>55151299.90589999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>72541932.63735001</v>
+        <v>72591370.57378</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>87897911.59034002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>88538509.00463</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>93881330.09999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3410959.63082</v>
+        <v>3410959.630820001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>3969807.79703</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4924743.67288</v>
+        <v>4953447.99994</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4870223.1334</v>
+        <v>4910790.0338</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5094977.99151</v>
+        <v>5161390.41666</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6215093.399320001</v>
+        <v>6297800.243570001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7399370.588269999</v>
+        <v>7568250.52208</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8082483.509410001</v>
+        <v>8099452.407539999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>10409903.92876</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13287215.23142</v>
+        <v>13402884.2632</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>15443687.3274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16136679.05338</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>20668331.464</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1173267.82395</v>
@@ -1427,34 +1393,39 @@
         <v>1676497.41935</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1962013.36397</v>
+        <v>1962170.22366</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2034891.47803</v>
+        <v>2042487.10534</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2436781.15231</v>
+        <v>2443491.051</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2733363.20936</v>
+        <v>2752743.0644</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3224571.39157</v>
+        <v>3225575.97737</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4230730.06803</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5472886.07104</v>
+        <v>5516014.796440001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7064397.83107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7315484.115609999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8166857.947</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>135509.53373</v>
@@ -1469,31 +1440,36 @@
         <v>189540.85502</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>213261.06544</v>
+        <v>254705.55568</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>216160.42766</v>
+        <v>267298.65692</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>260111.07058</v>
+        <v>323344.29532</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>404249.9416500001</v>
+        <v>404477.85183</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>516279.71912</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>648151.02655</v>
+        <v>649065.4768799999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>737191.2872299999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>737973.0364699999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>797646.621</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>4088774.67468</v>
@@ -1502,76 +1478,86 @@
         <v>4260595.95171</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6069001.178199999</v>
+        <v>6096895.08386</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5769967.021690001</v>
+        <v>5821168.6797</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7039460.74942</v>
+        <v>7121380.98225</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7980396.40081</v>
+        <v>8139303.668059999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8861904.207250001</v>
+        <v>9248807.518209999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9634934.027569998</v>
+        <v>9672376.80119</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>12319444.65481</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>17772003.97983</v>
+        <v>17802787.85499</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>18363333.1375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18609910.27992</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>23130323.406</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2916168.370069999</v>
+        <v>2916168.37007</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3217552.40705</v>
+        <v>3217552.407050001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3813245.48442</v>
+        <v>3836760.973630001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4249386.12477</v>
+        <v>4293504.29266</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4687422.115410001</v>
+        <v>4745818.30212</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5351927.587470001</v>
+        <v>5447996.807319999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5814091.714269999</v>
+        <v>6061240.900209999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6644602.89095</v>
+        <v>6674375.28918</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7687633.251559999</v>
+        <v>7687633.25156</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9679885.289080001</v>
+        <v>9712793.018620001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11577774.51311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11825537.64336</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12421538.345</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>13827.42949</v>
@@ -1586,31 +1572,36 @@
         <v>30666.35731</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>22704.08604</v>
+        <v>23126.07841</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>34970.43608</v>
+        <v>35018.56039</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>30021.77154</v>
+        <v>34668.76641</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>42144.02601</v>
+        <v>42144.02601000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>64936.54277</v>
+        <v>64936.54277000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>71091.63033999999</v>
+        <v>71091.63034</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>104493.4265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>104595.50825</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>125087.478</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1239986.11128</v>
@@ -1619,37 +1610,42 @@
         <v>1396406.56478</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1695373.36529</v>
+        <v>1717267.90987</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1881125.16078</v>
+        <v>1918466.52107</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2089266.52429</v>
+        <v>2137234.451</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2401988.61854</v>
+        <v>2418513.90817</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2499133.722130001</v>
+        <v>2662423.38999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2845140.80988</v>
+        <v>2862648.40359</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3423855.43644</v>
+        <v>3423855.436439999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4405351.24341</v>
+        <v>4407749.12031</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5064826.936650001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5179475.3189</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5213292.953</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1662354.8293</v>
@@ -1658,37 +1654,42 @@
         <v>1800642.33594</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2093233.54856</v>
+        <v>2094854.49319</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2337594.60668</v>
+        <v>2344371.41428</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2575451.50508</v>
+        <v>2585457.77271</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2914968.532850001</v>
+        <v>2994464.33876</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3284936.220600001</v>
+        <v>3364148.74381</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3757318.05506</v>
+        <v>3769582.85958</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4198841.272349999</v>
+        <v>4198841.27235</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5203442.41533</v>
+        <v>5233952.26797</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6408454.149960001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6541466.81621</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>7083157.914</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1172606.30461</v>
@@ -1697,37 +1698,42 @@
         <v>1043043.54466</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2255755.69378</v>
+        <v>2260134.11023</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1520580.89692</v>
+        <v>1527664.38704</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2352038.63401</v>
+        <v>2375562.68013</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2628468.81334</v>
+        <v>2691306.86074</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3047812.492980001</v>
+        <v>3187566.618</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2990331.13662</v>
+        <v>2998001.51201</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4631811.403250001</v>
+        <v>4631811.40325</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8092118.690750002</v>
+        <v>8089994.836369999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6785558.62439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6784372.63656</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10708785.061</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1018428.73195</v>
@@ -1736,43 +1742,48 @@
         <v>1123283.75707</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1389953.44746</v>
+        <v>1390842.82671</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1184048.36074</v>
+        <v>1194677.0932</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1564120.10447</v>
+        <v>1576272.72638</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1823181.52994</v>
+        <v>1845957.94399</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3214985.16897</v>
+        <v>3341038.89731</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2957578.82416</v>
+        <v>2972602.00503</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3962476.387180001</v>
+        <v>3962476.38718</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12387097.2824</v>
+        <v>12413668.14144</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7738961.049660001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7760242.580309998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14445275.462</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>9789.286</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6724.571449999999</v>
+        <v>6724.57145</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>10934.75321</v>
@@ -1784,28 +1795,33 @@
         <v>15361.46104</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8669.654700000001</v>
+        <v>8669.654699999999</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>32715.80361</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>20279.28818000001</v>
+        <v>20279.28818</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>29275.01005</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>48292.44474</v>
+        <v>48292.44473999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>73765.29516000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>73765.29515999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>94338.978</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1605.99838</v>
@@ -1823,10 +1839,10 @@
         <v>20507.12528</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>9568.342120000001</v>
+        <v>9568.342119999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>7719.10339</v>
+        <v>16155.76591</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>17846.85839</v>
@@ -1840,74 +1856,84 @@
       <c r="M27" s="48" t="n">
         <v>29829.12236</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>20680.506</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>87476.23476000002</v>
+        <v>87476.23475999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>73335.72611999999</v>
+        <v>73335.72612000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>81726.68711000001</v>
+        <v>81726.68711</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>97256.90938</v>
+        <v>97259.95205000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>94352.07229</v>
+        <v>94545.98736</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>115785.08747</v>
+        <v>117717.38425</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>142818.59507</v>
+        <v>148842.61441</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>161627.52442</v>
+        <v>162130.30007</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>227574.76574</v>
+        <v>227574.7657399999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>349651.2144000001</v>
+        <v>352036.76959</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>433822.62091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>437710.08005</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>443897.169</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3616.17302</v>
+        <v>3616.173020000001</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>5810.69119</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>20146.61844999999</v>
+        <v>20146.61845</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6158.875910000001</v>
+        <v>6158.87591</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5534.485809999999</v>
+        <v>5677.13949</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6859.246209999999</v>
+        <v>6859.24621</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>8940.818290000003</v>
+        <v>11738.59718</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6115.143410000001</v>
+        <v>6408.940489999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>15550.33038</v>
@@ -1916,13 +1942,18 @@
         <v>11218.9862</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>24114.52002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>32079.16874</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>46963.58</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>12926.28176</v>
@@ -1937,16 +1968,16 @@
         <v>10872.45925</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11846.09493</v>
+        <v>11855.37253</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9178.620870000001</v>
+        <v>9185.197169999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8669.482019999999</v>
+        <v>8751.60735</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>15347.58148</v>
+        <v>16438.75497</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11970.48198</v>
@@ -1955,13 +1986,18 @@
         <v>28235.73126</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>37307.51741</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>37317.47580000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>41495.306</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>25131.63971</v>
@@ -1976,85 +2012,95 @@
         <v>13873.75218</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3870.51562</v>
+        <v>3972.50041</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>13334.51332</v>
+        <v>13347.04003</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6003.20112</v>
+        <v>6052.55839</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8821.725010000002</v>
+        <v>8827.637859999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>19461.75624</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>15150.22163</v>
+        <v>15155.60859</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>22787.538</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>22815.23093</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>117843.204</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>679490.5384399999</v>
+        <v>679490.53844</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>768663.7443199999</v>
+        <v>768663.7443200001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>920823.8373899999</v>
+        <v>921284.3890500001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>737213.9907500001</v>
+        <v>746403.80821</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1071941.5574</v>
+        <v>1081249.15224</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1245535.90705</v>
+        <v>1265750.10538</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2518893.39096</v>
+        <v>2622486.37327</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2222710.16981</v>
+        <v>2234805.11412</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3077135.43869</v>
+        <v>3077135.438690001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10981460.89638</v>
+        <v>11003163.67304</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6067392.689730001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6067012.5342</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12451164.713</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>10068.94217</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>32572.81571</v>
+        <v>32572.81571000001</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>47695.72551</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>43245.50454000001</v>
+        <v>43245.50453999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>50586.81439</v>
+        <v>50586.81439000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>78233.91406</v>
@@ -2063,10 +2109,10 @@
         <v>82331.14103</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>82044.70997</v>
+        <v>82384.78972</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>76592.13630000001</v>
+        <v>76592.1363</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>166738.96662</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>228470.09856</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>98538.572</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>136.8391</v>
@@ -2099,7 +2150,7 @@
         <v>461.3199499999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>79.48723</v>
+        <v>128.8096</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>1229.99789</v>
@@ -2111,13 +2162,18 @@
         <v>442.7848</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>767.66985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1576.66393</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5616.754</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>188186.79861</v>
@@ -2126,76 +2182,86 @@
         <v>207920.46636</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>242974.95959</v>
+        <v>243403.78718</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>264739.16024</v>
+        <v>266175.03257</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>289869.9914800001</v>
+        <v>292267.18741</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>335554.92419</v>
+        <v>336165.74012</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>406814.14625</v>
+        <v>411835.62656</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>421555.8256</v>
+        <v>422250.32334</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>492441.6006199999</v>
+        <v>492441.60062</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>765480.1307099999</v>
+        <v>767957.2709400001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>820703.97766</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>829666.9105799999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1124736.68</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>851602.5450500001</v>
+        <v>851602.54505</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>914386.61301</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1534110.10904</v>
+        <v>1535743.46865</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>888617.5445199999</v>
+        <v>894819.6979199999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1884747.21639</v>
+        <v>1892846.1542</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1849928.71354</v>
+        <v>1879732.95783</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3176774.92915</v>
+        <v>3302434.9161</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3032568.31841</v>
+        <v>3050098.48831</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>4039187.27621</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13034791.57587</v>
+        <v>13048478.0233</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6983686.245420001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6982269.287050001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13049230.104</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>49535.01877</v>
@@ -2207,34 +2273,39 @@
         <v>60945.19420000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>64510.21904</v>
+        <v>64510.21903999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>60322.00892999999</v>
+        <v>60322.01473</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>62302.66525000001</v>
+        <v>64766.17677</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>77655.04892</v>
+        <v>80704.51428</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>98509.76137000001</v>
+        <v>98564.14715</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>116243.30572</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>168831.06891</v>
+        <v>168833.3721</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>205949.20505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>206089.51844</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>242370.254</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>82781.19747</v>
@@ -2243,37 +2314,42 @@
         <v>53605.47558999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>69524.86992</v>
+        <v>69524.86992000001</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>77694.43837</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>82978.30022</v>
+        <v>82978.30022000002</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>123180.73332</v>
+        <v>125527.34058</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>113780.25437</v>
+        <v>114407.89273</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>131334.61726</v>
+        <v>133770.78736</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>104887.42102</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>161800.40798</v>
+        <v>163861.83084</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>137002.94436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>137239.56948</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>511426.853</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3664.76075</v>
@@ -2288,31 +2364,36 @@
         <v>18883.42013</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>12544.7901</v>
+        <v>12555.75905</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9561.360239999998</v>
+        <v>9569.54876</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>12700.13527</v>
+        <v>12702.52382</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4269.121470000001</v>
+        <v>4275.163259999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>3405.24572</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>12714.81131</v>
+        <v>12715.49471</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>34512.34325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>26792.89691</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>32644.619</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>618544.17448</v>
@@ -2321,43 +2402,48 @@
         <v>700096.0793199999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1225651.11083</v>
+        <v>1227200.44827</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>580086.04119</v>
+        <v>585762.4034299999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1539820.24958</v>
+        <v>1547721.97511</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1431953.48582</v>
+        <v>1455770.80192</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2734008.84529</v>
+        <v>2851605.43949</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2555425.08146</v>
+        <v>2569536.3659</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3562839.18984</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12074724.77006</v>
+        <v>12085768.63489</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6165284.391380001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6168113.412829999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11853792.884</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>17049.6074</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>33588.59136999999</v>
+        <v>33588.59137</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>47034.85409</v>
@@ -2366,16 +2452,16 @@
         <v>42874.4826</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>59315.9966</v>
+        <v>59315.99659999999</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>79411.95133</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>80429.02808999999</v>
+        <v>80429.02809000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>76288.33336999999</v>
+        <v>76584.43148999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>81757.48245</v>
@@ -2384,13 +2470,18 @@
         <v>197463.79</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>209210.9943</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>209304.22711</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>85389.609</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>427.47838</v>
@@ -2399,22 +2490,22 @@
         <v>257.65149</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>810.45708</v>
+        <v>810.4570799999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>516.37908</v>
+        <v>516.3790799999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>90.61290000000001</v>
+        <v>90.6129</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>73.07911999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>8.223859999999998</v>
+        <v>8.22386</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>56.02174000000001</v>
+        <v>56.02174</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>42.7782</v>
@@ -2423,52 +2514,62 @@
         <v>16.22938</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>61.73732</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>1566.2479</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1664.282</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>79600.3078</v>
+        <v>79600.30780000001</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>77441.31665000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>125782.4086</v>
+        <v>125866.43077</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>104052.56411</v>
+        <v>104578.35527</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>129675.25806</v>
+        <v>129861.49559</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>143445.43846</v>
+        <v>144614.05935</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>158193.39335</v>
+        <v>162577.29383</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>166685.38174</v>
+        <v>167311.57141</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>170011.85326</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>419240.49823</v>
+        <v>419818.6713800001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>231664.62976</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>233163.41438</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>321941.603</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>529627.15976</v>
@@ -2477,76 +2578,86 @@
         <v>454444.47822</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>754284.02454</v>
+        <v>755041.53525</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>633393.41051</v>
+        <v>635270.0258899999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>862667.0391300002</v>
+        <v>866298.8504999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>816061.7997099999</v>
+        <v>824025.79074</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1175482.42891</v>
+        <v>1218060.6896</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1316007.96341</v>
+        <v>1319616.04148</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1643416.02553</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3200479.061970001</v>
+        <v>3204899.65927</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2759974.53232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2773313.711310001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5270647.568</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>493482.5696299999</v>
+        <v>493482.56963</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>412163.03511</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>652516.6119900002</v>
+        <v>653274.1227000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>609020.7124900001</v>
+        <v>610897.32787</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>814429.6332899999</v>
+        <v>818061.4446599998</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>783773.5785599999</v>
+        <v>788634.9390899999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1112726.21962</v>
+        <v>1155304.48031</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1249765.38632</v>
+        <v>1253357.85233</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1551012.75517</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2944923.03956</v>
+        <v>2949299.58544</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2580197.253649999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2593264.013960001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4879216.001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>36144.59013</v>
@@ -2561,70 +2672,80 @@
         <v>24372.69802</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>48237.40584</v>
+        <v>48237.40584000001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>32288.22115</v>
+        <v>35390.85165</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>62756.20928999999</v>
+        <v>62756.20929000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>66242.57709000001</v>
+        <v>66258.18915000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>92403.27036000001</v>
+        <v>92403.27035999998</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>255556.02241</v>
+        <v>255600.07383</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>179777.27867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>180049.69735</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>391431.567</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>809805.33175</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>797496.2105000002</v>
+        <v>797496.2105</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1357315.00766</v>
+        <v>1360191.93304</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1182618.30263</v>
+        <v>1192251.75643</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1168744.48296</v>
+        <v>1192690.40181</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1785659.83003</v>
+        <v>1833506.05616</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1910540.30389</v>
+        <v>2008109.90961</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1599333.67896</v>
+        <v>1600888.98725</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2911684.48869</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4243945.33531</v>
+        <v>4250285.29524</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4780858.896310001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4789032.21851</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6834182.851</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>193906.62721</v>
@@ -2633,37 +2754,42 @@
         <v>197216.22865</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>217984.26117</v>
+        <v>218364.80048</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>283540.18722</v>
+        <v>285844.57286</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>327150.61298</v>
+        <v>329758.67762</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>359697.2463099999</v>
+        <v>364301.89416</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>445358.8028300001</v>
+        <v>467837.12043</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>632167.7290000001</v>
+        <v>633382.956</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>812706.0881500001</v>
+        <v>812706.08815</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>790263.87474</v>
+        <v>792464.87451</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1056009.20329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1066931.90441</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1187505.119</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4722.918799999999</v>
@@ -2675,34 +2801,39 @@
         <v>3138.20265</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9073.813799999998</v>
+        <v>9120.718140000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8831.481800000001</v>
+        <v>8831.4818</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>14011.73898</v>
+        <v>14109.95074</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3436.05059</v>
+        <v>3457.75909</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>11655.57618</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4146.53527</v>
+        <v>4146.535269999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>34418.46203</v>
+        <v>34429.54307</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>68731.56502999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>67456.37359</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>14602.59</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>189183.70841</v>
@@ -2711,76 +2842,86 @@
         <v>193215.05122</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>214846.05852</v>
+        <v>215226.59783</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>274466.37342</v>
+        <v>276723.8547199999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>318319.13118</v>
+        <v>320927.1958200001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>345685.5073300001</v>
+        <v>350191.9434200001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>441922.75224</v>
+        <v>464379.3613399999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>620512.1528200001</v>
+        <v>621727.3798199999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>808559.55288</v>
+        <v>808559.5528799999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>755845.4127099998</v>
+        <v>758035.3314400001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>987277.6382599999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>999475.53082</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1172902.529</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>182223.1414200001</v>
+        <v>182223.14142</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>181107.71263</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1419592.85154</v>
+        <v>1420325.9107</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>375943.9315600001</v>
+        <v>378685.2873</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>221670.87404</v>
+        <v>224011.07475</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>695869.9592200002</v>
+        <v>702040.18955</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>261803.13247</v>
+        <v>270549.81547</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1087422.95655</v>
+        <v>1087457.56427</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>459897.55278</v>
+        <v>459897.5527800001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1142622.06559</v>
+        <v>1151968.27056</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>519205.62468</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>530310.75422</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>835258.5550000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>12918.11717</v>
@@ -2801,25 +2942,30 @@
         <v>14643.94799</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>19675.1946</v>
+        <v>20187.8978</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>23521.51923999999</v>
+        <v>23521.51924</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>28344.75378</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>22954.94825999999</v>
+        <v>23219.7903</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>34906.44119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>36215.90236</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>79537.10000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13358.83317</v>
@@ -2828,37 +2974,42 @@
         <v>12069.69287</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>37839.41027</v>
+        <v>37839.41026999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>141674.12793</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>13555.51917</v>
+        <v>13563.46492</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>19212.13818000001</v>
+        <v>19311.4307</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>15479.29649</v>
+        <v>16757.51962</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>24586.22202</v>
+        <v>24585.75917</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>14612.2765</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15214.0882</v>
+        <v>15326.26509</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>37778.24187000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>38147.95590000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>37461.989</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>155946.19108</v>
@@ -2867,37 +3018,42 @@
         <v>145109.46783</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1370121.47769</v>
+        <v>1370854.53685</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>219438.02247</v>
+        <v>222179.37821</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>194286.12004</v>
+        <v>196618.375</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>662013.8730499998</v>
+        <v>668084.8108599999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>226648.64138</v>
+        <v>233604.39805</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1039315.21529</v>
+        <v>1039350.28586</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>416940.5225</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1104453.02913</v>
+        <v>1113422.21517</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>446520.94162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>455946.89596</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>718259.466</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>821488.8175400001</v>
@@ -2906,37 +3062,42 @@
         <v>813604.72652</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>155706.41729</v>
+        <v>158230.82282</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1090214.55829</v>
+        <v>1099411.04199</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1274224.2219</v>
+        <v>1298438.00468</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1449487.11712</v>
+        <v>1495767.76077</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2094095.97425</v>
+        <v>2205397.21457</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1144078.45141</v>
+        <v>1146814.37898</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3264493.02406</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3891587.14446</v>
+        <v>3890781.89919</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5317662.47492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5325653.3687</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>7186429.415</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>187024.56148</v>
@@ -2945,73 +3106,81 @@
         <v>192428.38509</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>290958.4649199999</v>
+        <v>291499.21128</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>280347.5938</v>
+        <v>282588.87056</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>307939.43547</v>
+        <v>313007.88265</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>363447.74161</v>
+        <v>369576.51839</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>439284.9482599999</v>
+        <v>459881.42761</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>439747.91693</v>
+        <v>440045.7345799999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>556187.8338600001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>938625.0335100001</v>
+        <v>944353.5697</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>931625.5333299999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>945395.0820000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1412601.366</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>634464.2560599999</v>
+        <v>634464.25606</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>621176.3414299999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-135252.04763</v>
+        <v>-133268.38846</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>809866.9644899999</v>
+        <v>816822.1714300002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>966284.78643</v>
+        <v>985430.12203</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1086039.37551</v>
+        <v>1126191.24238</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1654811.02599</v>
+        <v>1745515.78696</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>704330.53448</v>
+        <v>706768.6444</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2708305.1902</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2952962.11095</v>
+        <v>2946428.32949</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4386036.941589999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4380258.286700001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>5773828.049</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>10474</v>
@@ -3038,34 +3210,37 @@
         <v>10370</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10272</v>
+        <v>10273</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10147</v>
+        <v>10154</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9843</v>
+        <v>9861</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9932</v>
+        <v>9963</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9954</v>
+        <v>10037</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>10207</v>
+        <v>10262</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>10753</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10343</v>
+        <v>11423</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10696</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>12386</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>13687</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>